--- a/data/trans_orig/P14_n_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14_n_R2-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>130825</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>112087</v>
+        <v>112781</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>149362</v>
+        <v>151689</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1885051286593731</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.161505409220517</v>
+        <v>0.1625053167724882</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.215214827749751</v>
+        <v>0.2185677441890332</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>208</v>
@@ -765,19 +765,19 @@
         <v>206231</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>180464</v>
+        <v>183028</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>231138</v>
+        <v>229238</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2996020999802419</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2621687252629242</v>
+        <v>0.2658932054547756</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3357847918179641</v>
+        <v>0.333025283608997</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>340</v>
@@ -786,19 +786,19 @@
         <v>337056</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>306625</v>
+        <v>305355</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>371210</v>
+        <v>367964</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2438261304201531</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2218124255859084</v>
+        <v>0.2208936050438414</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2685328259805099</v>
+        <v>0.266185071969447</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>149461</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>129036</v>
+        <v>127671</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>172784</v>
+        <v>171873</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2153580903005415</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1859269951368966</v>
+        <v>0.1839612631212005</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2489638114761769</v>
+        <v>0.2476508840763993</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>172</v>
@@ -836,19 +836,19 @@
         <v>166621</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>143781</v>
+        <v>147198</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>188144</v>
+        <v>188787</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2420575385125055</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2088779623705083</v>
+        <v>0.2138408783127203</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2733259467910642</v>
+        <v>0.2742595668220467</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>322</v>
@@ -857,19 +857,19 @@
         <v>316082</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>286074</v>
+        <v>286499</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>347108</v>
+        <v>347446</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.228653144197915</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2069454881742613</v>
+        <v>0.2072531204173958</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.251097693448706</v>
+        <v>0.2513423269420421</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>413726</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>386165</v>
+        <v>387076</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>438699</v>
+        <v>439809</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5961367810400854</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5564237234819787</v>
+        <v>0.5577374401977526</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6321205022281802</v>
+        <v>0.6337200795462737</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>316</v>
@@ -907,19 +907,19 @@
         <v>315499</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>290007</v>
+        <v>291329</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>342087</v>
+        <v>341814</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4583403615072526</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4213066552048081</v>
+        <v>0.4232275809115464</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4969661870767755</v>
+        <v>0.4965690510386078</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>717</v>
@@ -928,19 +928,19 @@
         <v>729225</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>691833</v>
+        <v>690497</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>764389</v>
+        <v>764383</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5275207253819318</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5004713396281472</v>
+        <v>0.4995049377807963</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5529585526330999</v>
+        <v>0.5529537741693258</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>192065</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>166731</v>
+        <v>168706</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>217540</v>
+        <v>219954</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1996933443500005</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1733533429501468</v>
+        <v>0.175406526437119</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2261805375228023</v>
+        <v>0.2286902565079887</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>303</v>
@@ -1053,19 +1053,19 @@
         <v>328881</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>300785</v>
+        <v>297992</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>360768</v>
+        <v>358321</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3396153121635865</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3106023103411955</v>
+        <v>0.3077179788968922</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.372543335327872</v>
+        <v>0.3700160023169798</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>487</v>
@@ -1074,19 +1074,19 @@
         <v>520946</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>485026</v>
+        <v>484459</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>565086</v>
+        <v>564498</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2698932973396341</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2512836195664576</v>
+        <v>0.2509900251037458</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2927616424502683</v>
+        <v>0.2924569354333212</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>207657</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>183732</v>
+        <v>182866</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>236132</v>
+        <v>236371</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2159040465913476</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1910291896237835</v>
+        <v>0.1901288427385497</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2455100541396502</v>
+        <v>0.2457594547186277</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>219</v>
@@ -1124,19 +1124,19 @@
         <v>231432</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>205588</v>
+        <v>203526</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>257517</v>
+        <v>260152</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2389853307348996</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2122984444145452</v>
+        <v>0.2101690076670626</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2659223832344024</v>
+        <v>0.2686429004628248</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>415</v>
@@ -1145,19 +1145,19 @@
         <v>439088</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>399919</v>
+        <v>398979</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>476237</v>
+        <v>474600</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2274841085868765</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.207191406170027</v>
+        <v>0.206703996158375</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2467301440521169</v>
+        <v>0.2458823200250378</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>562078</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>530407</v>
+        <v>527886</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>593038</v>
+        <v>591851</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5844026090586519</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5514731865462269</v>
+        <v>0.5488522325221823</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6165917779518862</v>
+        <v>0.6153579867608054</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>386</v>
@@ -1195,19 +1195,19 @@
         <v>408080</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>379167</v>
+        <v>376836</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>440721</v>
+        <v>438930</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4213993571015138</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3915426007165819</v>
+        <v>0.3891349638351986</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4551057572557049</v>
+        <v>0.4532563272413822</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>902</v>
@@ -1216,19 +1216,19 @@
         <v>970159</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>925079</v>
+        <v>926560</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1016842</v>
+        <v>1017994</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5026225940734894</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4792677327521881</v>
+        <v>0.4800350326319848</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5268085496481119</v>
+        <v>0.5274051422140923</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>135141</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>115565</v>
+        <v>115232</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>156928</v>
+        <v>156219</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1991729390837288</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1703213291719133</v>
+        <v>0.1698306959277124</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.231284204969104</v>
+        <v>0.2302382195856323</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>261</v>
@@ -1341,19 +1341,19 @@
         <v>253758</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>230930</v>
+        <v>229576</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>281545</v>
+        <v>279318</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3710770223581602</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3376960358823158</v>
+        <v>0.3357147585164075</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4117116632913841</v>
+        <v>0.4084545242197816</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>396</v>
@@ -1362,19 +1362,19 @@
         <v>388898</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>357406</v>
+        <v>354447</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>422371</v>
+        <v>421320</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.285461389660525</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2623449553002145</v>
+        <v>0.2601734723099761</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3100310427702877</v>
+        <v>0.3092600526264097</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>158481</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>136549</v>
+        <v>135348</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>180741</v>
+        <v>181883</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.233572483175419</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2012491482922608</v>
+        <v>0.1994781870825452</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2663791886572109</v>
+        <v>0.2680627304681568</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>149</v>
@@ -1412,19 +1412,19 @@
         <v>143603</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>123779</v>
+        <v>124148</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>165607</v>
+        <v>166857</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2099943275040629</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1810062438664819</v>
+        <v>0.1815455870140136</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2421722167613252</v>
+        <v>0.2439996866517826</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>300</v>
@@ -1433,19 +1433,19 @@
         <v>302084</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>275234</v>
+        <v>274139</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>335201</v>
+        <v>333824</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2217372638973995</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2020285593004338</v>
+        <v>0.2012247744938931</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2460462405138204</v>
+        <v>0.2450353879208788</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>384887</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>359354</v>
+        <v>359566</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>409753</v>
+        <v>412258</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5672545777408522</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5296226526834528</v>
+        <v>0.5299362130483843</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6039021595291639</v>
+        <v>0.6075944736758629</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>286</v>
@@ -1483,19 +1483,19 @@
         <v>286481</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>260873</v>
+        <v>261116</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>313258</v>
+        <v>312178</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4189286501377769</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3814821490041582</v>
+        <v>0.3818367885877819</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4580861536264215</v>
+        <v>0.4565065723598266</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>641</v>
@@ -1504,19 +1504,19 @@
         <v>671368</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>634473</v>
+        <v>633271</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>708718</v>
+        <v>711236</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4928013464420755</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4657192856356767</v>
+        <v>0.4648372209510254</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5202172611569668</v>
+        <v>0.522065429614367</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>189952</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>167434</v>
+        <v>169131</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>212330</v>
+        <v>216290</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2016002577656081</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1777011853668738</v>
+        <v>0.1795027675030823</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2253498177667352</v>
+        <v>0.2295529726393798</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>329</v>
@@ -1629,19 +1629,19 @@
         <v>343491</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>315833</v>
+        <v>315264</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>373653</v>
+        <v>373659</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3307209333197652</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3040914673471043</v>
+        <v>0.303543220405126</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3597614071848599</v>
+        <v>0.3597676405404165</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>540</v>
@@ -1650,19 +1650,19 @@
         <v>533443</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>498757</v>
+        <v>495592</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>573175</v>
+        <v>576675</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2693021836878469</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2517915889646884</v>
+        <v>0.250193832496338</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2893603500309995</v>
+        <v>0.2911275119652538</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>204191</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>179811</v>
+        <v>181167</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>231767</v>
+        <v>230530</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2167117788369786</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1908369406272973</v>
+        <v>0.1922761550319952</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2459792442426768</v>
+        <v>0.2446659803122918</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>257</v>
@@ -1700,19 +1700,19 @@
         <v>268835</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>241652</v>
+        <v>243990</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>296772</v>
+        <v>296968</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2588410954227199</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2326678021721838</v>
+        <v>0.23491954594213</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2857393254099938</v>
+        <v>0.2859275111996052</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>474</v>
@@ -1721,19 +1721,19 @@
         <v>473026</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>436094</v>
+        <v>436460</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>511890</v>
+        <v>512609</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2388014701927684</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2201567134749248</v>
+        <v>0.2203416935929668</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2584214195980059</v>
+        <v>0.258784283899528</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>548079</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>514704</v>
+        <v>520304</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>576517</v>
+        <v>577586</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5816879633974134</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5462662882984175</v>
+        <v>0.552209890038191</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.611869502534852</v>
+        <v>0.6130045229140303</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>411</v>
@@ -1771,19 +1771,19 @@
         <v>426286</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>392375</v>
+        <v>394733</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>455855</v>
+        <v>457418</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4104379712575149</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.377788185905069</v>
+        <v>0.3800577276641385</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4389074508582937</v>
+        <v>0.4404131027095811</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>977</v>
@@ -1792,19 +1792,19 @@
         <v>974365</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>931026</v>
+        <v>928263</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1015648</v>
+        <v>1021189</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4918963461193848</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4700169575567548</v>
+        <v>0.4686222768455131</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5127375458112822</v>
+        <v>0.5155347605362494</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>647983</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>601869</v>
+        <v>602764</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>691471</v>
+        <v>693707</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1977641401705281</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1836902442071196</v>
+        <v>0.183963270024117</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2110368303081016</v>
+        <v>0.211719058118747</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1101</v>
@@ -1917,19 +1917,19 @@
         <v>1132361</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1077281</v>
+        <v>1077316</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1185222</v>
+        <v>1185809</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3350976316574633</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3187980497467797</v>
+        <v>0.3188083237191427</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3507406700124574</v>
+        <v>0.3509144351144274</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1763</v>
@@ -1938,19 +1938,19 @@
         <v>1780344</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1703941</v>
+        <v>1714496</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1853234</v>
+        <v>1853444</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2674899589204349</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2560107588528546</v>
+        <v>0.2575965742536874</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2784414872857595</v>
+        <v>0.2784729992324192</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>719789</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>677729</v>
+        <v>675377</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>771532</v>
+        <v>770681</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2196794754031551</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2068427398874251</v>
+        <v>0.2061248863663024</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.235471419809991</v>
+        <v>0.235211720508165</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>797</v>
@@ -1988,19 +1988,19 @@
         <v>810490</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>758999</v>
+        <v>762241</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>858966</v>
+        <v>857965</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.23984706006182</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2246092389081231</v>
+        <v>0.2255686375098144</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2541923848687889</v>
+        <v>0.2538960515019897</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1511</v>
@@ -2009,19 +2009,19 @@
         <v>1530280</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1463693</v>
+        <v>1467817</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1592058</v>
+        <v>1609058</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2299187938484103</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2199142963853485</v>
+        <v>0.2205340395080071</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2392007587172627</v>
+        <v>0.2417548343497476</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>1908771</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1850614</v>
+        <v>1849816</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1965630</v>
+        <v>1964320</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5825563844263167</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5648070139720753</v>
+        <v>0.5645634071098433</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5999097614345623</v>
+        <v>0.5995099953480203</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1399</v>
@@ -2059,19 +2059,19 @@
         <v>1436346</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1382979</v>
+        <v>1379209</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1496182</v>
+        <v>1489408</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4250553082807167</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4092625705483795</v>
+        <v>0.4081469544820988</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4427626270032043</v>
+        <v>0.4407580462236166</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3237</v>
@@ -2080,19 +2080,19 @@
         <v>3345117</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3263538</v>
+        <v>3261034</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3427508</v>
+        <v>3420931</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5025912472311548</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4903343077575062</v>
+        <v>0.4899580200906325</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5149700962770787</v>
+        <v>0.5139819707932045</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>181251</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>159333</v>
+        <v>157857</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>205056</v>
+        <v>208188</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2576530413590578</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2264966151981938</v>
+        <v>0.2243979071882059</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2914922811422681</v>
+        <v>0.2959451564520731</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>282</v>
@@ -2445,19 +2445,19 @@
         <v>303918</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>273486</v>
+        <v>276376</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>328851</v>
+        <v>331145</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4360062955973922</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3923472158910141</v>
+        <v>0.3964937253375631</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4717748400930761</v>
+        <v>0.4750665759732282</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>452</v>
@@ -2466,19 +2466,19 @@
         <v>485169</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>449473</v>
+        <v>453157</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>523742</v>
+        <v>526467</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3464209464611238</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3209328486633965</v>
+        <v>0.3235638481236922</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3739626935411711</v>
+        <v>0.3759088308179331</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>153612</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>132378</v>
+        <v>131944</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>178154</v>
+        <v>176716</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2183638867818933</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1881782746114097</v>
+        <v>0.1875625825022829</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2532506141299793</v>
+        <v>0.251207119478799</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>110</v>
@@ -2516,19 +2516,19 @@
         <v>115816</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>97891</v>
+        <v>97046</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>137414</v>
+        <v>135381</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1661520023780155</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1404360831430619</v>
+        <v>0.1392239930836208</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1971371172302254</v>
+        <v>0.1942197017125361</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>256</v>
@@ -2537,19 +2537,19 @@
         <v>269428</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>243570</v>
+        <v>240078</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>299797</v>
+        <v>300454</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1923775955882936</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1739139855320727</v>
+        <v>0.1714207394167747</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2140616752616093</v>
+        <v>0.214530574763902</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>368606</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>341228</v>
+        <v>339518</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>395212</v>
+        <v>395525</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5239830718590489</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4850644368975817</v>
+        <v>0.4826340709362754</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5618041645324088</v>
+        <v>0.5622489425658249</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>258</v>
@@ -2587,19 +2587,19 @@
         <v>277316</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>251489</v>
+        <v>251543</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>302435</v>
+        <v>303242</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3978417020245923</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3607901754449176</v>
+        <v>0.3608682376292582</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.433878377312725</v>
+        <v>0.4350368493053025</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>616</v>
@@ -2608,19 +2608,19 @@
         <v>645921</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>608015</v>
+        <v>606067</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>683261</v>
+        <v>682723</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4612014579505825</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4341353878885685</v>
+        <v>0.4327448285986801</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4878630260374074</v>
+        <v>0.4874787094504534</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>243885</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>216182</v>
+        <v>216969</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>271362</v>
+        <v>272655</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2395849080300613</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.212370761747999</v>
+        <v>0.2131435490826529</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2665776119802223</v>
+        <v>0.2678474423089157</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>359</v>
@@ -2733,19 +2733,19 @@
         <v>392591</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>361057</v>
+        <v>360050</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>424106</v>
+        <v>425142</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.380349721228318</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3497987255616961</v>
+        <v>0.3488234116294797</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4108819592673064</v>
+        <v>0.4118856886411636</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>582</v>
@@ -2754,19 +2754,19 @@
         <v>636476</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>596499</v>
+        <v>592328</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>679638</v>
+        <v>679684</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3104560763546387</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2909565628140321</v>
+        <v>0.2889221158188035</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3315097180988671</v>
+        <v>0.3315319094181595</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>194286</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>168896</v>
+        <v>171169</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>219573</v>
+        <v>223515</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1908605694387374</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1659185179468908</v>
+        <v>0.1681514867570759</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2157019613189771</v>
+        <v>0.219574427813681</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>195</v>
@@ -2804,19 +2804,19 @@
         <v>216629</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>189716</v>
+        <v>190008</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>244971</v>
+        <v>245791</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2098741239848908</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1838006343609338</v>
+        <v>0.1840836030993732</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2373322564945902</v>
+        <v>0.2381270387160336</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>373</v>
@@ -2825,19 +2825,19 @@
         <v>410915</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>371788</v>
+        <v>374489</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>452258</v>
+        <v>449524</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2004333653248166</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1813485750467993</v>
+        <v>0.1826659463641285</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2205997233955542</v>
+        <v>0.2192661169224274</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>579776</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>547733</v>
+        <v>547640</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>612088</v>
+        <v>612934</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5695545225312012</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5380764047056183</v>
+        <v>0.537984463650708</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6012961336162164</v>
+        <v>0.6021276351805176</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>386</v>
@@ -2875,19 +2875,19 @@
         <v>422964</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>387259</v>
+        <v>390950</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>453824</v>
+        <v>454848</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4097761547867912</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3751841201213336</v>
+        <v>0.3787598198201283</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4396739361517881</v>
+        <v>0.4406652771723072</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>921</v>
@@ -2896,19 +2896,19 @@
         <v>1002741</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>953030</v>
+        <v>956105</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1050555</v>
+        <v>1047479</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4891105583205448</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4648628104594082</v>
+        <v>0.4663626644639469</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5124329757196411</v>
+        <v>0.5109326405807512</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>163289</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>139973</v>
+        <v>140233</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>192140</v>
+        <v>187632</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2155278568976724</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1847526460218173</v>
+        <v>0.1850954465284024</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2536085940012904</v>
+        <v>0.2476589753156238</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>245</v>
@@ -3021,19 +3021,19 @@
         <v>267639</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>240812</v>
+        <v>241198</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>297418</v>
+        <v>295743</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3443743103938789</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3098556031394749</v>
+        <v>0.310352214986342</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3826916223655085</v>
+        <v>0.3805364182360361</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>388</v>
@@ -3042,19 +3042,19 @@
         <v>430928</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>395475</v>
+        <v>397416</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>469743</v>
+        <v>469640</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2807717253318737</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2576728212363572</v>
+        <v>0.2589371828861034</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3060621631740556</v>
+        <v>0.3059948683699264</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>139641</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>117245</v>
+        <v>116841</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>165108</v>
+        <v>165065</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1843149119993352</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.154754213185724</v>
+        <v>0.1542200556735513</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2179288872619067</v>
+        <v>0.2178719818755082</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>169</v>
@@ -3092,19 +3092,19 @@
         <v>189914</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>164704</v>
+        <v>165017</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>215329</v>
+        <v>214299</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2443651855919075</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2119265370499707</v>
+        <v>0.212329329112055</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2770668199550147</v>
+        <v>0.275741917350501</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>290</v>
@@ -3113,19 +3113,19 @@
         <v>329555</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>297980</v>
+        <v>295465</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>367776</v>
+        <v>366001</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2147225176679455</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1941493239394982</v>
+        <v>0.192510710333934</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2396248609290227</v>
+        <v>0.2384688606899883</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>454693</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>427045</v>
+        <v>429221</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>485481</v>
+        <v>485949</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6001572311029924</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5636636661963205</v>
+        <v>0.5665360147313769</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6407953960614141</v>
+        <v>0.6414121229461272</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>291</v>
@@ -3163,19 +3163,19 @@
         <v>319621</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>288126</v>
+        <v>291673</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>350127</v>
+        <v>350463</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4112605040142137</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3707355284060314</v>
+        <v>0.3752990527409333</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4505128601370095</v>
+        <v>0.4509451626042745</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>716</v>
@@ -3184,19 +3184,19 @@
         <v>774314</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>732637</v>
+        <v>733109</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>817730</v>
+        <v>815211</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5045057570001809</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4773510135415783</v>
+        <v>0.4776584025877251</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.532793741017183</v>
+        <v>0.5311521588143386</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>244429</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>215840</v>
+        <v>218939</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>270573</v>
+        <v>272843</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2579073518266275</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2277417195508199</v>
+        <v>0.2310123637663505</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2854933966212633</v>
+        <v>0.2878880501042529</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>393</v>
@@ -3309,19 +3309,19 @@
         <v>412429</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>378402</v>
+        <v>383063</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>447725</v>
+        <v>449294</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3920797786953663</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3597317001182177</v>
+        <v>0.364162442608286</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4256337675497346</v>
+        <v>0.4271257157419674</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>618</v>
@@ -3330,19 +3330,19 @@
         <v>656858</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>617084</v>
+        <v>614794</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>700409</v>
+        <v>701753</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3284880984952625</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3085974149848391</v>
+        <v>0.3074521574777406</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3502677063373589</v>
+        <v>0.3509398889348522</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>183817</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>160258</v>
+        <v>160009</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>207598</v>
+        <v>208755</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1939531116327094</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1690952650358876</v>
+        <v>0.1688325311533941</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.219045753180553</v>
+        <v>0.2202660846258502</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>222</v>
@@ -3380,19 +3380,19 @@
         <v>233329</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>208365</v>
+        <v>207131</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>261584</v>
+        <v>263452</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2218169038312731</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1980839064533151</v>
+        <v>0.196911544346129</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2486777732906018</v>
+        <v>0.2504536417709231</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>398</v>
@@ -3401,19 +3401,19 @@
         <v>417146</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>380904</v>
+        <v>381284</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>460030</v>
+        <v>456260</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2086107227700431</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1904861697658947</v>
+        <v>0.1906761570981821</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2300562164195508</v>
+        <v>0.2281708816522527</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>519493</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>489589</v>
+        <v>488655</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>551162</v>
+        <v>549395</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5481395365406632</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5165864193749938</v>
+        <v>0.5156009034860853</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5815547126229343</v>
+        <v>0.5796905921757191</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>388</v>
@@ -3451,19 +3451,19 @@
         <v>406142</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>374933</v>
+        <v>374014</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>439481</v>
+        <v>439615</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3861033174733606</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3564332679343068</v>
+        <v>0.3555596022093334</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4177967442125869</v>
+        <v>0.4179240952428707</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>897</v>
@@ -3472,19 +3472,19 @@
         <v>925636</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>879519</v>
+        <v>880017</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>971770</v>
+        <v>970204</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4629011787346944</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4398387649144898</v>
+        <v>0.4400877805097976</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4859725111431775</v>
+        <v>0.4851892416255189</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>832854</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>783333</v>
+        <v>780445</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>888767</v>
+        <v>888562</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2430427006172313</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2285916501713468</v>
+        <v>0.2277489814157754</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2593592738880337</v>
+        <v>0.2592995930426619</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1279</v>
@@ -3597,19 +3597,19 @@
         <v>1376577</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1313500</v>
+        <v>1318449</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1434060</v>
+        <v>1436130</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.386862680234676</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3691360209666502</v>
+        <v>0.3705269174170019</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4030172168320776</v>
+        <v>0.4035991487437324</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2040</v>
@@ -3618,19 +3618,19 @@
         <v>2209431</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2126039</v>
+        <v>2126748</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2288505</v>
+        <v>2285837</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3163067660577515</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3043682720939518</v>
+        <v>0.3044697620063027</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3276272681179413</v>
+        <v>0.3272453369934935</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>671357</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>621480</v>
+        <v>625857</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>718826</v>
+        <v>724080</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1959147363385039</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1813597335128389</v>
+        <v>0.1826370165301551</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2097672986666356</v>
+        <v>0.2113005798266193</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>696</v>
@@ -3668,19 +3668,19 @@
         <v>755689</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>706429</v>
+        <v>710365</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>804340</v>
+        <v>805711</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2123729720179417</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1985293449025178</v>
+        <v>0.199635623940608</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2260455767749137</v>
+        <v>0.226430733889296</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1317</v>
@@ -3689,19 +3689,19 @@
         <v>1427045</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1357446</v>
+        <v>1357494</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1494745</v>
+        <v>1502710</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2042988096714386</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1943348407048341</v>
+        <v>0.1943417813953645</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2139908976564193</v>
+        <v>0.2151311624190728</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>1922569</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1865095</v>
+        <v>1864252</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1982633</v>
+        <v>1984225</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5610425630442648</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.544270453246662</v>
+        <v>0.5440246235678577</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5785703552775774</v>
+        <v>0.5790350710727787</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1323</v>
@@ -3739,19 +3739,19 @@
         <v>1426043</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1368416</v>
+        <v>1363694</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1485935</v>
+        <v>1482765</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4007643477473823</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3845691460531789</v>
+        <v>0.3832421408195164</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4175957154338468</v>
+        <v>0.4167050248958768</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3150</v>
@@ -3760,19 +3760,19 @@
         <v>3348612</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3271999</v>
+        <v>3263147</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3449609</v>
+        <v>3436721</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4793944242708099</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4684262855805427</v>
+        <v>0.467159058686203</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4938533088992046</v>
+        <v>0.4920082319847597</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>156110</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>134879</v>
+        <v>135387</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>180158</v>
+        <v>178270</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2313424655259683</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1998801169407231</v>
+        <v>0.2006322833360804</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2669802559131827</v>
+        <v>0.2641814398486267</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>240</v>
@@ -4125,19 +4125,19 @@
         <v>256658</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>231342</v>
+        <v>234534</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>282060</v>
+        <v>286765</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3814546478073933</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3438290322043903</v>
+        <v>0.3485735499372613</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4192090350852445</v>
+        <v>0.4262017766033722</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>396</v>
@@ -4146,19 +4146,19 @@
         <v>412767</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>377427</v>
+        <v>378464</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>445124</v>
+        <v>448485</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3062893396277155</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2800656462745119</v>
+        <v>0.2808349093267981</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3302989891566474</v>
+        <v>0.3327929118576656</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>146892</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>127469</v>
+        <v>127854</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>171083</v>
+        <v>169545</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2176821365874342</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1888991398457023</v>
+        <v>0.189468873624391</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2535310459412733</v>
+        <v>0.2512528017395582</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>131</v>
@@ -4196,19 +4196,19 @@
         <v>132934</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>112400</v>
+        <v>113866</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>154596</v>
+        <v>154044</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1975723449853226</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1670533017525002</v>
+        <v>0.169232223667393</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2297659926547058</v>
+        <v>0.2289459339103965</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>273</v>
@@ -4217,19 +4217,19 @@
         <v>279826</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>250790</v>
+        <v>250250</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>309470</v>
+        <v>310705</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2076418720565366</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1860958195910933</v>
+        <v>0.1856950114800932</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2296382952182277</v>
+        <v>0.2305549031124392</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>371798</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>346737</v>
+        <v>346814</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>397125</v>
+        <v>397451</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5509753978865976</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5138361268988669</v>
+        <v>0.5139502026475086</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5885077722848231</v>
+        <v>0.5889908927483235</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>295</v>
@@ -4267,19 +4267,19 @@
         <v>283247</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>259436</v>
+        <v>256541</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>309724</v>
+        <v>308118</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4209730072072841</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3855844239859746</v>
+        <v>0.3812811854695408</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4603234204838694</v>
+        <v>0.4579372067779531</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>649</v>
@@ -4288,19 +4288,19 @@
         <v>655045</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>619465</v>
+        <v>617588</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>694783</v>
+        <v>693043</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.486068788315748</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4596667003526295</v>
+        <v>0.4582743100409696</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5155560486271504</v>
+        <v>0.5142646788955091</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>237193</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>212236</v>
+        <v>210476</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>265279</v>
+        <v>263976</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2319888423652353</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2075800381818589</v>
+        <v>0.2058582911748366</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2594586803465691</v>
+        <v>0.2581847959285691</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>344</v>
@@ -4413,19 +4413,19 @@
         <v>389674</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>355979</v>
+        <v>361430</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>422000</v>
+        <v>423540</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3736402775134092</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3413311930576489</v>
+        <v>0.3465582696166394</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4046354294465217</v>
+        <v>0.4061125391401181</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>574</v>
@@ -4434,19 +4434,19 @@
         <v>626867</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>585887</v>
+        <v>587406</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>670625</v>
+        <v>671344</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3035169383675956</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2836750982618118</v>
+        <v>0.2844105607863012</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3247036705644433</v>
+        <v>0.3250519007658536</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>192670</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>168216</v>
+        <v>166588</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>219342</v>
+        <v>217952</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1884432913830329</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1645257991422145</v>
+        <v>0.1629327780103523</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2145303105770374</v>
+        <v>0.2131701794605266</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>210</v>
@@ -4484,19 +4484,19 @@
         <v>221438</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>195569</v>
+        <v>195922</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>248018</v>
+        <v>249222</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.212326827518697</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1875218184842478</v>
+        <v>0.1878600487733643</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.237812871151843</v>
+        <v>0.2389674651003451</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>389</v>
@@ -4505,19 +4505,19 @@
         <v>414109</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>375367</v>
+        <v>377651</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>453919</v>
+        <v>453228</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2005034859288956</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1817457475076306</v>
+        <v>0.1828514254715774</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2197788551761066</v>
+        <v>0.2194442477326277</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>592568</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>557274</v>
+        <v>561616</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>621439</v>
+        <v>626858</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5795678662517318</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5450476511187422</v>
+        <v>0.5492944987608145</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.607805543852612</v>
+        <v>0.6131055435142504</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>423</v>
@@ -4555,19 +4555,19 @@
         <v>431800</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>399831</v>
+        <v>398152</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>464441</v>
+        <v>463911</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4140328949678938</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3833791311954278</v>
+        <v>0.3817690018108505</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4453303019230022</v>
+        <v>0.444822568445224</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>965</v>
@@ -4576,19 +4576,19 @@
         <v>1024368</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>977292</v>
+        <v>978043</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1075675</v>
+        <v>1070116</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4959795757035088</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4731862733290925</v>
+        <v>0.4735495000777373</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5208209916163808</v>
+        <v>0.5181295762304021</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>167445</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>145434</v>
+        <v>143571</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>193664</v>
+        <v>190178</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2204519883708365</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.191473087237466</v>
+        <v>0.1890202464879358</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2549712979812742</v>
+        <v>0.2503817943900274</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>217</v>
@@ -4701,19 +4701,19 @@
         <v>244499</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>220177</v>
+        <v>216259</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>275013</v>
+        <v>269831</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3114592911916019</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2804767295144972</v>
+        <v>0.2754855271228319</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3503303113160076</v>
+        <v>0.3437288413764937</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>377</v>
@@ -4722,19 +4722,19 @@
         <v>411944</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>378734</v>
+        <v>376612</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>447855</v>
+        <v>447340</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2667056646099791</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2452045518473159</v>
+        <v>0.243831007293897</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2899557960979653</v>
+        <v>0.2896221290560568</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>139173</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>118226</v>
+        <v>117450</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>163575</v>
+        <v>162826</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1832297868593824</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1556523130625007</v>
+        <v>0.1546309254508802</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.215357455080493</v>
+        <v>0.2143710111736852</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>150</v>
@@ -4772,19 +4772,19 @@
         <v>161719</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>138735</v>
+        <v>140487</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>185622</v>
+        <v>185688</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2060082063571566</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1767302299200816</v>
+        <v>0.1789613655363388</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2364580989103512</v>
+        <v>0.2365420849937461</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>274</v>
@@ -4793,19 +4793,19 @@
         <v>300891</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>270431</v>
+        <v>272524</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>334486</v>
+        <v>335546</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1948067219847361</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1750855953859179</v>
+        <v>0.1764410122216293</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2165570456618831</v>
+        <v>0.2172431115662675</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>452935</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>423730</v>
+        <v>425101</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>480345</v>
+        <v>483545</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.596318224769781</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5578688124592166</v>
+        <v>0.5596727134428063</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6324053224266254</v>
+        <v>0.63661879107746</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>369</v>
@@ -4843,19 +4843,19 @@
         <v>378793</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>350043</v>
+        <v>348255</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>405131</v>
+        <v>406480</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4825325024512415</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4459083499356674</v>
+        <v>0.4436301907157139</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5160826425306866</v>
+        <v>0.5178016942834242</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>781</v>
@@ -4864,19 +4864,19 @@
         <v>831728</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>792754</v>
+        <v>790590</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>871750</v>
+        <v>872013</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5384876134052847</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.513254294348523</v>
+        <v>0.5118537327431339</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5643992188674063</v>
+        <v>0.5645691016103935</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>248861</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>222183</v>
+        <v>221964</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>275084</v>
+        <v>277652</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2654327693462923</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2369781541837773</v>
+        <v>0.236744167249586</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2934018322204828</v>
+        <v>0.2961407471080348</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>336</v>
@@ -4989,19 +4989,19 @@
         <v>388951</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>358218</v>
+        <v>358102</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>421844</v>
+        <v>421827</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3726369034657883</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3431934697229255</v>
+        <v>0.3430825006821498</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4041505443546443</v>
+        <v>0.4041341115289977</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>587</v>
@@ -5010,19 +5010,19 @@
         <v>637812</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>596020</v>
+        <v>596451</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>681973</v>
+        <v>682084</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3219082282511502</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3008158428248178</v>
+        <v>0.3010330569705074</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3441965736187772</v>
+        <v>0.3442526868822445</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>202041</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>178851</v>
+        <v>177083</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>230684</v>
+        <v>226232</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2154949955410976</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1907611283767158</v>
+        <v>0.1888752747075115</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2460455130750387</v>
+        <v>0.2412973969823112</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>200</v>
@@ -5060,19 +5060,19 @@
         <v>217537</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>190045</v>
+        <v>191437</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>244662</v>
+        <v>245585</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2084132888352895</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1820735156877645</v>
+        <v>0.1834073532118443</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2344000222628706</v>
+        <v>0.2352843829136436</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>402</v>
@@ -5081,19 +5081,19 @@
         <v>419578</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>383288</v>
+        <v>385057</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>452937</v>
+        <v>457703</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2117643312404623</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1934482642861807</v>
+        <v>0.194341082447606</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2286007304650292</v>
+        <v>0.2310062221052189</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>486665</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>457260</v>
+        <v>451115</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>515538</v>
+        <v>518709</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.51907223511261</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4877087976083374</v>
+        <v>0.4811548753535674</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5498683125856664</v>
+        <v>0.5532504446910625</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>423</v>
@@ -5131,19 +5131,19 @@
         <v>437291</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>406577</v>
+        <v>404462</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>470085</v>
+        <v>469131</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4189498076989222</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3895238576457665</v>
+        <v>0.3874975942068665</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4503682359050418</v>
+        <v>0.4494543089378394</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>902</v>
@@ -5152,19 +5152,19 @@
         <v>923956</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>884234</v>
+        <v>884042</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>968187</v>
+        <v>969448</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4663274405083875</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4462792855583631</v>
+        <v>0.4461824025805656</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4886511749956268</v>
+        <v>0.4892877018994387</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>809608</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>760352</v>
+        <v>764074</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>862252</v>
+        <v>860076</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2385164248893366</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.224005101273313</v>
+        <v>0.2251017382393446</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2540258005607766</v>
+        <v>0.2533845174307455</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1137</v>
@@ -5277,19 +5277,19 @@
         <v>1279781</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1220451</v>
+        <v>1212863</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1339290</v>
+        <v>1335748</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3610569180493427</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3443184172949922</v>
+        <v>0.3421775869072018</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3778455722336492</v>
+        <v>0.3768463126128068</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1934</v>
@@ -5298,19 +5298,19 @@
         <v>2089390</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2001594</v>
+        <v>2013744</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2166661</v>
+        <v>2163601</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3011128600502788</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2884601761554669</v>
+        <v>0.2902112413715754</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3122488336970831</v>
+        <v>0.31180790888157</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>680776</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>636140</v>
+        <v>638842</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>731460</v>
+        <v>728267</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2005614358251045</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1874115219178664</v>
+        <v>0.1882073976156876</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2154933489821723</v>
+        <v>0.214552746984324</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>691</v>
@@ -5348,19 +5348,19 @@
         <v>733629</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>687941</v>
+        <v>683436</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>789587</v>
+        <v>783714</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2069742466068085</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1940846743220423</v>
+        <v>0.1928137255021315</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.222761361998545</v>
+        <v>0.2211045483020124</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1338</v>
@@ -5369,19 +5369,19 @@
         <v>1414405</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1344745</v>
+        <v>1349831</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1482968</v>
+        <v>1481613</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2038372435515527</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1937982492313011</v>
+        <v>0.1945312668976334</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2137182815857863</v>
+        <v>0.2135229725630691</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>1903966</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1848973</v>
+        <v>1843874</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1962120</v>
+        <v>1958878</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5609221392855589</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.544720845248174</v>
+        <v>0.5432185655089813</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5780547785201235</v>
+        <v>0.5770996281807047</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1510</v>
@@ -5419,19 +5419,19 @@
         <v>1531132</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1472560</v>
+        <v>1467710</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1595105</v>
+        <v>1590636</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4319688353438489</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4154444404269595</v>
+        <v>0.4140761316667176</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4500173626523371</v>
+        <v>0.4487565612796214</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3297</v>
@@ -5440,19 +5440,19 @@
         <v>3435098</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3350824</v>
+        <v>3354427</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3521876</v>
+        <v>3522006</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4950498963981685</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4829048297195595</v>
+        <v>0.4834240453580247</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5075560249126133</v>
+        <v>0.507574749981263</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>252485</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>228043</v>
+        <v>228187</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>281916</v>
+        <v>280052</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3655444725748727</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3301567483132297</v>
+        <v>0.3303655243379492</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4081540840801657</v>
+        <v>0.405455589479553</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>674</v>
@@ -5805,19 +5805,19 @@
         <v>349514</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>328685</v>
+        <v>326085</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>371885</v>
+        <v>371143</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.476060266718846</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4476899240679689</v>
+        <v>0.4441491173258617</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5065314322648623</v>
+        <v>0.5055211044349781</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>997</v>
@@ -5826,19 +5826,19 @@
         <v>601999</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>566101</v>
+        <v>567083</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>634930</v>
+        <v>639100</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4224881667696941</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3972948441368856</v>
+        <v>0.397984254425357</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4455992725525385</v>
+        <v>0.4485261170773489</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>128864</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>109694</v>
+        <v>108631</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>151855</v>
+        <v>150907</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1865676099810911</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1588134556254331</v>
+        <v>0.1572738382505426</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2198535962598121</v>
+        <v>0.218480646300065</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>225</v>
@@ -5876,19 +5876,19 @@
         <v>140836</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>123619</v>
+        <v>123235</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>157320</v>
+        <v>158778</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1918272100007685</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1683770161515238</v>
+        <v>0.1678537131723924</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2142792318297826</v>
+        <v>0.2162651616020363</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>368</v>
@@ -5897,19 +5897,19 @@
         <v>269700</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>243509</v>
+        <v>241321</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>296415</v>
+        <v>296990</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1892776394155936</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1708968189225532</v>
+        <v>0.1693614068891464</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2080270738562618</v>
+        <v>0.2084305193517557</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>309361</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>280040</v>
+        <v>281529</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>338586</v>
+        <v>340841</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4478879174440362</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4054383457464926</v>
+        <v>0.4075935749416944</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4901996186120648</v>
+        <v>0.4934643293016018</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>342</v>
@@ -5947,19 +5947,19 @@
         <v>243830</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>221415</v>
+        <v>221807</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>266411</v>
+        <v>265797</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3321125232803854</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3015808077290755</v>
+        <v>0.3021153935186389</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3628689710679485</v>
+        <v>0.3620329899649588</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>606</v>
@@ -5968,19 +5968,19 @@
         <v>553191</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>514621</v>
+        <v>514861</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>594448</v>
+        <v>591928</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3882341938147124</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3611654420053331</v>
+        <v>0.3613338306833697</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.417188989806897</v>
+        <v>0.4154203153002048</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>297975</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>267625</v>
+        <v>269558</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>327900</v>
+        <v>331456</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2840782990621541</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2551437135548992</v>
+        <v>0.2569872396509275</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3126079482570873</v>
+        <v>0.3159986592532672</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>771</v>
@@ -6093,19 +6093,19 @@
         <v>481659</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>452177</v>
+        <v>452057</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>509674</v>
+        <v>511249</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4495296181679636</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4220141613200749</v>
+        <v>0.4219018449182793</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4756754941598422</v>
+        <v>0.4771450423592629</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1113</v>
@@ -6114,19 +6114,19 @@
         <v>779634</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>734730</v>
+        <v>737548</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>822179</v>
+        <v>825273</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3676840110961532</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.346507071055961</v>
+        <v>0.3478356154956242</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3877487793016062</v>
+        <v>0.3892078368761476</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>231616</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>203747</v>
+        <v>200186</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>262990</v>
+        <v>264964</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2208145547713883</v>
+        <v>0.2208145547713884</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1942453056245211</v>
+        <v>0.190849904707348</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2507249102715023</v>
+        <v>0.2526067381337233</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>282</v>
@@ -6164,19 +6164,19 @@
         <v>202556</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>180270</v>
+        <v>180907</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>225039</v>
+        <v>226609</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1890440247299843</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1682446601201644</v>
+        <v>0.1688391072259243</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2100273146328986</v>
+        <v>0.2114931096994862</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>496</v>
@@ -6185,19 +6185,19 @@
         <v>434172</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>401342</v>
+        <v>393507</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>478183</v>
+        <v>473163</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.2047602990533637</v>
+        <v>0.2047602990533638</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1892773074007649</v>
+        <v>0.1855820627763708</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2255165377262952</v>
+        <v>0.2231488329515416</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>519326</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>479361</v>
+        <v>480115</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>553831</v>
+        <v>556624</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4951071461664576</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4570053559212735</v>
+        <v>0.4577244993729131</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5280029426163059</v>
+        <v>0.530665029678399</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>464</v>
@@ -6235,19 +6235,19 @@
         <v>387259</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>357837</v>
+        <v>358511</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>418113</v>
+        <v>415118</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3614263571020521</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3339674647087308</v>
+        <v>0.3345959200910518</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3902226017962369</v>
+        <v>0.3874267650400383</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>872</v>
@@ -6256,19 +6256,19 @@
         <v>906585</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>861409</v>
+        <v>860694</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>953502</v>
+        <v>957558</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.427555689850483</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4062500889022044</v>
+        <v>0.4059128911382577</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4496820031405823</v>
+        <v>0.4515948381205616</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>259958</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>229180</v>
+        <v>228980</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>290511</v>
+        <v>288353</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3237046567529971</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2853782885299305</v>
+        <v>0.2851303423048379</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3617494745969393</v>
+        <v>0.3590623956301871</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>518</v>
@@ -6381,19 +6381,19 @@
         <v>372126</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>347185</v>
+        <v>345011</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>399696</v>
+        <v>399283</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.4581366295530214</v>
+        <v>0.4581366295530213</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4274319428809092</v>
+        <v>0.4247543254265337</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4920795676668943</v>
+        <v>0.491571508073663</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>775</v>
@@ -6402,19 +6402,19 @@
         <v>632084</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>596282</v>
+        <v>593130</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>670969</v>
+        <v>669796</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3913028713844064</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3691387721998808</v>
+        <v>0.3671873668306755</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.415375199464364</v>
+        <v>0.414649059625826</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>200996</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>175373</v>
+        <v>174709</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>230851</v>
+        <v>232021</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2502830300037557</v>
+        <v>0.2502830300037556</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2183771983782168</v>
+        <v>0.2175501445606206</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2874597955211812</v>
+        <v>0.2889159490197497</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>212</v>
@@ -6452,19 +6452,19 @@
         <v>164761</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>142952</v>
+        <v>142960</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>186547</v>
+        <v>185905</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2028426151440219</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1759932149338972</v>
+        <v>0.1760024605148744</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.22966387514699</v>
+        <v>0.2288737004010788</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>385</v>
@@ -6473,19 +6473,19 @@
         <v>365756</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>331468</v>
+        <v>330564</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>400345</v>
+        <v>402998</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2264279360175816</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2052014554475734</v>
+        <v>0.2046416128513688</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2478408326084705</v>
+        <v>0.2494827750977052</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>342119</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>308143</v>
+        <v>307166</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>376693</v>
+        <v>376049</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4260123132432474</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3837050943634296</v>
+        <v>0.3824886486966932</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4690641892880723</v>
+        <v>0.4682625920693856</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>317</v>
@@ -6523,19 +6523,19 @@
         <v>275373</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>249918</v>
+        <v>251163</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>303138</v>
+        <v>301315</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3390207553029567</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3076826366636328</v>
+        <v>0.3092155338989249</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3732033720879673</v>
+        <v>0.3709589667432595</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>563</v>
@@ -6544,19 +6544,19 @@
         <v>617492</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>577914</v>
+        <v>577997</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>654888</v>
+        <v>660262</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3822691925980121</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3577678503534291</v>
+        <v>0.3578192774406916</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4054198876229358</v>
+        <v>0.4087470130979453</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>330401</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>299411</v>
+        <v>298997</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>360977</v>
+        <v>358904</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3337176419210335</v>
+        <v>0.3337176419210336</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3024167367274839</v>
+        <v>0.3019985012038998</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.364600878710648</v>
+        <v>0.3625063830774955</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>811</v>
@@ -6669,19 +6669,19 @@
         <v>520843</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>492053</v>
+        <v>491357</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>548972</v>
+        <v>549956</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4654372917226944</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4397094047980962</v>
+        <v>0.4390880223371006</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4905739195100969</v>
+        <v>0.4914530168213487</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1213</v>
@@ -6690,19 +6690,19 @@
         <v>851245</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>810822</v>
+        <v>804937</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>890341</v>
+        <v>891237</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.403605028478699</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3844391903099454</v>
+        <v>0.3816486879213462</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4221417937326244</v>
+        <v>0.4225664951179857</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>218439</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>190938</v>
+        <v>193604</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>247792</v>
+        <v>246368</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2206317107137616</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1928541427032765</v>
+        <v>0.1955469569109433</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2502794323917906</v>
+        <v>0.2488411738941963</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>326</v>
@@ -6740,19 +6740,19 @@
         <v>247272</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>225132</v>
+        <v>220626</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>277134</v>
+        <v>274420</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.220967458894569</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.201183154716438</v>
+        <v>0.1971560835653856</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2476527004681708</v>
+        <v>0.2452277357481724</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>555</v>
@@ -6761,19 +6761,19 @@
         <v>465711</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>430215</v>
+        <v>428698</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>504508</v>
+        <v>503118</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2208098508996295</v>
+        <v>0.2208098508996294</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2039800837629112</v>
+        <v>0.2032607584160076</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2392047138596238</v>
+        <v>0.2385460313132028</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>441222</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>410992</v>
+        <v>408020</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>475787</v>
+        <v>475945</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4456506473652048</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4151177678876716</v>
+        <v>0.4121154995321439</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4805630718868568</v>
+        <v>0.4807226207836388</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>425</v>
@@ -6811,19 +6811,19 @@
         <v>350926</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>322122</v>
+        <v>321420</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>380885</v>
+        <v>381889</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3135952493827368</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2878556963248545</v>
+        <v>0.2872278789116721</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3403671147733329</v>
+        <v>0.3412644918855393</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>800</v>
@@ -6832,19 +6832,19 @@
         <v>792148</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>747503</v>
+        <v>747638</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>839386</v>
+        <v>838718</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3755851206216716</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3544175622983349</v>
+        <v>0.3544815247620697</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3979822532135091</v>
+        <v>0.3976655586122916</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>1140819</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1086166</v>
+        <v>1080143</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1200748</v>
+        <v>1196797</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3229256272451861</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3074551715711908</v>
+        <v>0.3057504173086999</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3398893028249449</v>
+        <v>0.3387709262693741</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2774</v>
@@ -6957,19 +6957,19 @@
         <v>1724142</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1669498</v>
+        <v>1672112</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1776102</v>
+        <v>1777660</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4613763600743805</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4467535595557532</v>
+        <v>0.4474530844938493</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4752806776127179</v>
+        <v>0.4756974563710953</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4098</v>
@@ -6978,19 +6978,19 @@
         <v>2864962</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2776217</v>
+        <v>2775205</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2942113</v>
+        <v>2938234</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3940954002529922</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3818879201369373</v>
+        <v>0.3817487654082554</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4047081461397947</v>
+        <v>0.4041744898064048</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>779915</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>729561</v>
+        <v>725923</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>838966</v>
+        <v>828557</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2207663251698474</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2065130533358705</v>
+        <v>0.2054832030484751</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2374815047478641</v>
+        <v>0.2345351954599796</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1045</v>
@@ -7028,19 +7028,19 @@
         <v>755424</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>711361</v>
+        <v>709280</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>799648</v>
+        <v>800679</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2021496250219207</v>
+        <v>0.2021496250219206</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1903584271849001</v>
+        <v>0.1898017481651035</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2139839215277258</v>
+        <v>0.2142598716544555</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1804</v>
@@ -7049,19 +7049,19 @@
         <v>1535339</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1461357</v>
+        <v>1465064</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1608348</v>
+        <v>1610257</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.2111965215537343</v>
+        <v>0.2111965215537342</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2010197785893098</v>
+        <v>0.2015297354617888</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2212394617412108</v>
+        <v>0.2215020561643035</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>1612028</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1543510</v>
+        <v>1545338</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1676953</v>
+        <v>1680879</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4563080475849665</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4369130641151273</v>
+        <v>0.4374304976743967</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4746860029308513</v>
+        <v>0.475797393798334</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1548</v>
@@ -7099,19 +7099,19 @@
         <v>1257388</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1210466</v>
+        <v>1206360</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1317551</v>
+        <v>1316328</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3364740149036989</v>
+        <v>0.3364740149036988</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3239178537410344</v>
+        <v>0.3228190510847619</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.35257345832186</v>
+        <v>0.3522463098588632</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2841</v>
@@ -7120,19 +7120,19 @@
         <v>2869416</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2789491</v>
+        <v>2785815</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2967216</v>
+        <v>2960312</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3947080781932735</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.383713875134561</v>
+        <v>0.3832081684443428</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4081611815922125</v>
+        <v>0.4072115270480127</v>
       </c>
     </row>
     <row r="23">
